--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2465428.403159039</v>
+        <v>2463540.821642636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505518.6437270729</v>
+        <v>719758.3140850085</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>55.6685229375947</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>262.6037122108364</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.88986550434922</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>146.6511378567301</v>
       </c>
       <c r="H5" t="n">
-        <v>99.698563043359</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.90898350835228</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.24181988115424</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9323490168575</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>120.6697374803264</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>46.17260076820864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>207.5428010623601</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>160.5099371138714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.8930561484699</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>231.7162636587395</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.6480887072117</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>270.0405803376221</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.17030625426648</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6120714735164</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965548</v>
       </c>
       <c r="E31" t="n">
-        <v>69.08257792864683</v>
+        <v>91.2307060180123</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0.3281211140962483</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>55.21598883571511</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523592</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373747</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2158.229459560338</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2158.229459560338</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.118241157406</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.852542550656</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E5" t="n">
-        <v>1137.064289952412</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="F5" t="n">
-        <v>726.0783851628041</v>
+        <v>202.0754443019101</v>
       </c>
       <c r="G5" t="n">
-        <v>308.114577060991</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2475.576056810131</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2475.576056810131</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.2840617486069</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>225.2858548969224</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>636.176123741435</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1250.073193498324</v>
+        <v>550.0023305088837</v>
       </c>
       <c r="M12" t="n">
-        <v>1570.408513028025</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.95676543139</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>796.2722772255034</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>506.8551071885428</v>
+        <v>809.2953582963256</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>809.2953582963256</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>687.4067345788242</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5273,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1426.94561082251</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>821.846685011157</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1452.277279882944</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1452.277279882944</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>1452.277279882944</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W16" t="n">
-        <v>1452.277279882944</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.287728984927</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.495149841397</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735812</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655736</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,37 +5747,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.959921985247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2569.423683287906</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2569.423683287906</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>509.2863307027309</v>
+        <v>381.3857973138607</v>
       </c>
       <c r="C22" t="n">
-        <v>509.2863307027309</v>
+        <v>381.3857973138607</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>381.3857973138607</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>233.4727037314676</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>233.4727037314676</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247857</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>730.078909846261</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V22" t="n">
-        <v>730.078909846261</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="W22" t="n">
-        <v>730.078909846261</v>
+        <v>609.375348211878</v>
       </c>
       <c r="X22" t="n">
-        <v>730.078909846261</v>
+        <v>381.3857973138607</v>
       </c>
       <c r="Y22" t="n">
-        <v>509.2863307027309</v>
+        <v>381.3857973138607</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>140.7369014512175</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>140.7369014512175</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>370.7000073195667</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1139.068153712028</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1943.479731976179</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O24" t="n">
-        <v>2612.943493278838</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>876.5764122253729</v>
       </c>
       <c r="V25" t="n">
-        <v>909.3712637033474</v>
+        <v>876.5764122253729</v>
       </c>
       <c r="W25" t="n">
-        <v>636.6030007360523</v>
+        <v>587.1592421884122</v>
       </c>
       <c r="X25" t="n">
-        <v>636.6030007360523</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925223</v>
+        <v>359.1696912903949</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.548343721096</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1899.959921985247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2569.423683287906</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.4801130615101</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="C28" t="n">
-        <v>616.5439301336032</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="D28" t="n">
-        <v>466.4272907212675</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="E28" t="n">
-        <v>318.5141971388744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>874.6385818722738</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.92115703528</v>
+        <v>646.6490309742566</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.1285778917498</v>
+        <v>447.0408779707047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.548343721096</v>
+        <v>629.3975440735811</v>
       </c>
       <c r="N30" t="n">
-        <v>1899.959921985247</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O30" t="n">
-        <v>2569.423683287906</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
-        <v>2569.423683287906</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.502972866611</v>
+        <v>565.4200295030838</v>
       </c>
       <c r="C31" t="n">
-        <v>615.3276552200748</v>
+        <v>452.2447118565479</v>
       </c>
       <c r="D31" t="n">
-        <v>520.9718810891098</v>
+        <v>357.8889377255828</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>265.7367094245602</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>265.7367094245602</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>153.3222530257519</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.650971894286</v>
+        <v>902.6804289818901</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.422286277639</v>
+        <v>730.4517433652434</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.3905724154799</v>
+        <v>565.4200295030838</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504521</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,31 +7093,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,10 +7485,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.6785640741344</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>188.6711974024431</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>264.6493710622028</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.6785640741344</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10446,7 +10446,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>64.30500338171986</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>97.9149158717684</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>175.3749602901806</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>44.59484226146793</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>65.19971827516571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>31.60051231490772</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>54.52108873983784</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>89.58926369136569</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>16.48241799896891</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>75.25074176866477</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>20.97258187857832</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.14812808936534</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437437</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.38245062488301</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.826450433232822e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.025449189</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327926</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.6836327928</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327926</v>
@@ -26335,22 +26335,22 @@
         <v>547440.6836327926</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833785</v>
+        <v>569550.9922833787</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049975</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049977</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086701</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758216</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758372</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758372</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758785</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758824</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758771</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.793690575849</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477238</v>
+        <v>18952.41620477231</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535744</v>
+        <v>-237156.857553574</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609705</v>
+        <v>352811.0216609704</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609701</v>
+        <v>352811.0216609698</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339621</v>
+        <v>-70591.93160936872</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639935003</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639935</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009068</v>
+        <v>278144.8856749348</v>
       </c>
       <c r="K6" t="n">
-        <v>409807.7622455377</v>
+        <v>409789.2685076038</v>
       </c>
       <c r="L6" t="n">
-        <v>443464.64535221</v>
+        <v>443464.6453522089</v>
       </c>
       <c r="M6" t="n">
-        <v>319006.5369192397</v>
+        <v>319006.5369192386</v>
       </c>
       <c r="N6" t="n">
+        <v>453807.5521530766</v>
+      </c>
+      <c r="O6" t="n">
         <v>453807.552153076</v>
       </c>
-      <c r="O6" t="n">
-        <v>453807.5521530758</v>
-      </c>
       <c r="P6" t="n">
-        <v>409644.9468502304</v>
+        <v>409644.9468502305</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.0653187258858</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>65.14854625929854</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>269.6331328322418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>267.1330321640648</v>
       </c>
       <c r="H5" t="n">
-        <v>224.2242097209981</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>248.315183999937</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59016030078305</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.371257144362727e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-2.960652012714246e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>87.78329382423999</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>130.1089786359917</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>98.44906376001137</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813462</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>399.4910404804381</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127209</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>44.70599535750199</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>90.02710286925503</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33518,16 +33518,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34153,10 +34153,10 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>392.6063366508803</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>129.3623873097339</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>330.7350292835964</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>723.0620703084197</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407025</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.69678998811289</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>43.95940403124413</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>274.515464094862</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36531,10 +36531,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>54.69678998811289</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>122.5153371401844</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.69678998811289</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37084,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>274.515464094862</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>740.6069989111005</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
